--- a/downloaded_files/GENS110_Lecture-35034.xlsx
+++ b/downloaded_files/GENS110_Lecture-35034.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,15 +172,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1230215</x:t>
@@ -476,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -776,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -784,7 +775,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.160625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.390625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1377,7 +1368,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1409,7 +1400,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45909.4310848032</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1441,7 +1432,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4310848032</x:v>
+        <x:v>45907.6696834838</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1473,7 +1464,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6696834838</x:v>
+        <x:v>45914.9770790509</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1505,7 +1496,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.9770790509</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1537,7 +1528,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1569,7 +1560,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1601,7 +1592,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6656915162</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1633,7 +1624,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6656915162</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1665,7 +1656,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1697,7 +1688,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1729,7 +1720,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1761,7 +1752,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1793,7 +1784,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45914.9789740741</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1825,7 +1816,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.9789740741</x:v>
+        <x:v>45907.6738653125</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1857,7 +1848,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6738653125</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1889,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1921,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.6785393866</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1953,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6785393866</x:v>
+        <x:v>45914.9797443634</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1985,7 +1976,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9797443634</x:v>
+        <x:v>45909.4243306713</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2002,38 +1993,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45909.4243306713</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35034.xlsx
+++ b/downloaded_files/GENS110_Lecture-35034.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,24 @@
   </x:si>
   <x:si>
     <x:t>Jana HossamEldin Ahmed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جورج ممدوح محروس رزق مرقس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOURG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه الوليد محمد محمود الشناوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Alwaleed Mohamed Mahmoud Alshennawy</x:t>
   </x:si>
   <x:si>
     <x:t>1240303</x:t>
@@ -467,7 +485,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +785,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1082,7 +1100,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45920.9131716088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1114,7 +1132,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45920.7629605324</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1146,7 +1164,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6819943634</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1178,7 +1196,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4551885069</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1210,7 +1228,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6727075231</x:v>
+        <x:v>45907.6819943634</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1242,7 +1260,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9762040162</x:v>
+        <x:v>45909.4551885069</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1270,9 +1288,11 @@
       <x:c r="C15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6727075231</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1295,16 +1315,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9728108449</x:v>
+        <x:v>45914.9762040162</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1327,16 +1347,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6676209838</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1368,7 +1386,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45914.9728108449</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1400,7 +1418,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4310848032</x:v>
+        <x:v>45907.6676209838</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1432,7 +1450,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6696834838</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1464,7 +1482,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.9770790509</x:v>
+        <x:v>45909.4310848032</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1496,7 +1514,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45907.6696834838</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1528,7 +1546,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45914.9770790509</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1560,7 +1578,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1592,7 +1610,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6656915162</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1624,7 +1642,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1656,7 +1674,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45907.6656915162</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1688,7 +1706,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1720,7 +1738,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1752,7 +1770,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1784,7 +1802,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.9789740741</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1816,7 +1834,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6738653125</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,7 +1866,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45914.9789740741</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,7 +1898,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.6738653125</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,7 +1930,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6785393866</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1944,7 +1962,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9797443634</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1976,7 +1994,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6785393866</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1993,6 +2011,70 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45914.9797443634</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35034.xlsx
+++ b/downloaded_files/GENS110_Lecture-35034.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -174,6 +174,15 @@
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
   </x:si>
   <x:si>
+    <x:t>1220244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد نور الدين عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Noureldin Abdalla</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240075</x:t>
   </x:si>
   <x:si>
@@ -190,6 +199,24 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على احمد محمد محمود محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على تامر عبدالكريم منسى عبدالغفار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
   </x:si>
   <x:si>
     <x:t>1230215</x:t>
@@ -485,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -785,7 +812,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1386,7 +1413,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9728108449</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1418,7 +1445,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6676209838</x:v>
+        <x:v>45914.9728108449</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1450,7 +1477,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45907.6676209838</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1482,7 +1509,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4310848032</x:v>
+        <x:v>45921.4150876968</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1514,7 +1541,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6696834838</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1546,7 +1573,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9770790509</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1578,7 +1605,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45909.4310848032</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1610,7 +1637,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45907.6696834838</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1642,7 +1669,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45914.9770790509</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1674,7 +1701,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6656915162</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1706,7 +1733,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1738,7 +1765,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1770,7 +1797,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6656915162</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1802,7 +1829,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1834,7 +1861,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1866,7 +1893,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9789740741</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1898,7 +1925,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6738653125</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1930,7 +1957,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1962,7 +1989,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45914.9789740741</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1994,7 +2021,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6785393866</x:v>
+        <x:v>45907.6738653125</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2026,7 +2053,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.9797443634</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2058,7 +2085,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2075,6 +2102,102 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45907.6785393866</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45914.9797443634</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35034.xlsx
+++ b/downloaded_files/GENS110_Lecture-35034.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Bassem Wagih Ragab Elkholy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بركات صابر الطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed barakat saber eltyeb</x:t>
   </x:si>
   <x:si>
     <x:t>1240008</x:t>
@@ -512,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -935,7 +944,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6648148958</x:v>
+        <x:v>45921.9377711806</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -967,7 +976,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.677550081</x:v>
+        <x:v>45907.6648148958</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -999,7 +1008,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45907.677550081</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1031,7 +1040,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.988674537</x:v>
+        <x:v>45907.6657842245</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1063,7 +1072,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4196144329</x:v>
+        <x:v>45914.988674537</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1095,7 +1104,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6676100347</x:v>
+        <x:v>45909.4196144329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1127,7 +1136,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.9131716088</x:v>
+        <x:v>45907.6676100347</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1159,7 +1168,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.7629605324</x:v>
+        <x:v>45920.9131716088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1191,7 +1200,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45920.7629605324</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1223,7 +1232,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1255,7 +1264,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6819943634</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1287,7 +1296,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4551885069</x:v>
+        <x:v>45907.6819943634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6727075231</x:v>
+        <x:v>45909.4551885069</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9762040162</x:v>
+        <x:v>45907.6727075231</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1379,9 +1388,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45914.9762040162</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1404,16 +1415,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1445,7 +1454,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9728108449</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1477,7 +1486,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6676209838</x:v>
+        <x:v>45914.9728108449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1509,7 +1518,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.4150876968</x:v>
+        <x:v>45907.6676209838</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1541,7 +1550,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45921.4150876968</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1573,7 +1582,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1605,7 +1614,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4310848032</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1637,7 +1646,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6696834838</x:v>
+        <x:v>45909.4310848032</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1669,7 +1678,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.9770790509</x:v>
+        <x:v>45907.6696834838</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1701,7 +1710,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45914.9770790509</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1733,7 +1742,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1765,7 +1774,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1797,7 +1806,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6656915162</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1829,7 +1838,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.6656915162</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1861,7 +1870,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1893,7 +1902,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1925,7 +1934,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1957,7 +1966,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1989,7 +1998,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9789740741</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2021,7 +2030,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6738653125</x:v>
+        <x:v>45914.9789740741</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2053,7 +2062,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45907.6738653125</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2085,7 +2094,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2117,7 +2126,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6785393866</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2149,7 +2158,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.9797443634</x:v>
+        <x:v>45907.6785393866</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2181,7 +2190,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45914.9797443634</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2198,6 +2207,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35034.xlsx
+++ b/downloaded_files/GENS110_Lecture-35034.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -201,6 +201,15 @@
     <x:t>Sama Tarik Mahmoud Gaballah</x:t>
   </x:si>
   <x:si>
+    <x:t>1240230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240330</x:t>
   </x:si>
   <x:si>
@@ -226,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1230215</x:t>
@@ -521,7 +539,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -821,7 +839,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -829,7 +847,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.160625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.390625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1518,7 +1536,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6676209838</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1550,7 +1568,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.4150876968</x:v>
+        <x:v>45907.6676209838</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1582,7 +1600,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45921.4150876968</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1614,7 +1632,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1646,7 +1664,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4310848032</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1678,7 +1696,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6696834838</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1710,7 +1728,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.9770790509</x:v>
+        <x:v>45909.4310848032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1742,7 +1760,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45907.6696834838</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1774,7 +1792,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45914.9770790509</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1806,7 +1824,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1838,7 +1856,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6656915162</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1870,7 +1888,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1902,7 +1920,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45907.6656915162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1934,7 +1952,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1966,7 +1984,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1998,7 +2016,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2030,7 +2048,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9789740741</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2062,7 +2080,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6738653125</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2094,7 +2112,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45914.9789740741</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2126,7 +2144,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.6738653125</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2158,7 +2176,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6785393866</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2190,7 +2208,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.9797443634</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2222,7 +2240,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6785393866</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2239,6 +2257,70 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45914.9797443634</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35034.xlsx
+++ b/downloaded_files/GENS110_Lecture-35034.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -372,15 +372,6 @@
     <x:t>Hady Abdelaal Reda</x:t>
   </x:si>
   <x:si>
-    <x:t>1240188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هنداوي محمد هنداوي درويش</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hendawy Mohamed Hendawy Darwish</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240391</x:t>
   </x:si>
   <x:si>
@@ -397,15 +388,6 @@
   </x:si>
   <x:si>
     <x:t>Youanna Girgis Abdou Hendy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوحنا ميخائيل خليفة ميخائيل خليل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youhana Mikhael Khalifa Mikhael</x:t>
   </x:si>
   <x:si>
     <x:t>1240166</x:t>
@@ -539,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -839,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2144,7 +2126,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6738653125</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2176,7 +2158,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2208,7 +2190,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45914.9797443634</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2240,7 +2222,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6785393866</x:v>
+        <x:v>45909.4243306713</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2257,70 +2239,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45914.9797443634</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45909.4243306713</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35034.xlsx
+++ b/downloaded_files/GENS110_Lecture-35034.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Helmy Mohamed Morgan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240052</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ديفيد مارك مكرم شاكر قرياقص</x:t>
+  </x:si>
+  <x:si>
+    <x:t>David Mark Makram Shaker</x:t>
   </x:si>
   <x:si>
     <x:t>1240060</x:t>
@@ -521,7 +530,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -821,7 +830,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1264,7 +1273,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45926.4321302431</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1296,7 +1305,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6819943634</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1328,7 +1337,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4551885069</x:v>
+        <x:v>45907.6819943634</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1360,7 +1369,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6727075231</x:v>
+        <x:v>45909.4551885069</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9762040162</x:v>
+        <x:v>45907.6727075231</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1420,9 +1429,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45914.9762040162</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1445,16 +1456,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1486,7 +1495,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9728108449</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1518,7 +1527,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45914.9728108449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1550,7 +1559,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6676209838</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1582,7 +1591,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.4150876968</x:v>
+        <x:v>45907.6676209838</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1614,7 +1623,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45921.4150876968</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1646,7 +1655,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1678,7 +1687,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1710,7 +1719,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4310848032</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1742,7 +1751,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6696834838</x:v>
+        <x:v>45909.4310848032</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1774,7 +1783,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.9770790509</x:v>
+        <x:v>45907.6696834838</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1806,7 +1815,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45914.9770790509</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1838,7 +1847,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1870,7 +1879,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1902,7 +1911,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6656915162</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1934,7 +1943,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.6656915162</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1966,7 +1975,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1998,7 +2007,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2030,7 +2039,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2062,7 +2071,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2094,7 +2103,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.9789740741</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2126,7 +2135,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45914.9789740741</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2158,7 +2167,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2190,7 +2199,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.9797443634</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2222,7 +2231,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45914.9797443634</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2239,6 +2248,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35034.xlsx
+++ b/downloaded_files/GENS110_Lecture-35034.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Ahmed mohamed aly younes omar</x:t>
   </x:si>
   <x:si>
+    <x:t>1240021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ياسر محمد احمد منصور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yasser Mohamed Ahmed mansour</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240177</x:t>
   </x:si>
   <x:si>
@@ -78,6 +87,15 @@
     <x:t>ِ Akram Tisser Fahim Abdel Halim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امنة تامر محمد شوقي الإختيار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amena Tamer Mohamed Shawky Elekhtyar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240032</x:t>
   </x:si>
   <x:si>
@@ -219,13 +237,22 @@
     <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
   </x:si>
   <x:si>
-    <x:t>1240330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
+    <x:t>1240083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد عبدالباسط احمد عبدالفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
   </x:si>
   <x:si>
     <x:t>1240091</x:t>
@@ -397,15 +424,6 @@
   </x:si>
   <x:si>
     <x:t>Youanna Girgis Abdou Hendy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوساب يوسف اسحق برسوم حنين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssab Youssef</x:t>
   </x:si>
   <x:si>
     <x:t>1240172</x:t>
@@ -530,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -830,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -838,7 +856,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.610625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.650625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="48.390625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1049,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45927.418025081</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1081,7 +1099,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.988674537</x:v>
+        <x:v>45907.6657842245</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1113,7 +1131,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4196144329</x:v>
+        <x:v>45927.4614355324</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1145,7 +1163,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6676100347</x:v>
+        <x:v>45914.988674537</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1177,7 +1195,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.9131716088</x:v>
+        <x:v>45909.4196144329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1209,7 +1227,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45920.7629605324</x:v>
+        <x:v>45907.6676100347</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1241,7 +1259,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45920.9131716088</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1273,7 +1291,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45926.4321302431</x:v>
+        <x:v>45920.7629605324</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1305,7 +1323,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1337,7 +1355,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6819943634</x:v>
+        <x:v>45926.4321302431</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1369,7 +1387,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4551885069</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1401,7 +1419,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6727075231</x:v>
+        <x:v>45907.6819943634</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1433,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9762040162</x:v>
+        <x:v>45909.4551885069</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1461,9 +1479,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6727075231</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1486,16 +1506,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45914.9762040162</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1518,16 +1538,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45914.9728108449</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1559,7 +1577,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1591,7 +1609,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6676209838</x:v>
+        <x:v>45914.9728108449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1623,7 +1641,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.4150876968</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1655,7 +1673,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45927.4628696759</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1687,7 +1705,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45927.4147864931</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1719,7 +1737,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4142193287</x:v>
+        <x:v>45921.4150876968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1751,7 +1769,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4310848032</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1783,7 +1801,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6696834838</x:v>
+        <x:v>45922.4392584143</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1815,7 +1833,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.9770790509</x:v>
+        <x:v>45907.4142193287</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1847,7 +1865,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45917.4804573727</x:v>
+        <x:v>45909.4310848032</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1879,7 +1897,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6655933218</x:v>
+        <x:v>45907.6696834838</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1911,7 +1929,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45914.9770790509</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1943,7 +1961,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6656915162</x:v>
+        <x:v>45917.4804573727</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1975,7 +1993,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45907.6655933218</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2007,7 +2025,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6712014699</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2039,7 +2057,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6656915162</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2071,7 +2089,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2103,7 +2121,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.6712014699</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2135,7 +2153,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.9789740741</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2167,7 +2185,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6651739583</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2199,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2231,7 +2249,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45914.9797443634</x:v>
+        <x:v>45914.9789740741</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2263,7 +2281,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4243306713</x:v>
+        <x:v>45907.6651739583</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2280,6 +2298,70 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45909.4243306713</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35034.xlsx
+++ b/downloaded_files/GENS110_Lecture-35034.xlsx
@@ -159,6 +159,15 @@
     <x:t>David Mark Makram Shaker</x:t>
   </x:si>
   <x:si>
+    <x:t>1240058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رغد احمد مصطفى محمد الموافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Raghad Ahmed Mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240060</x:t>
   </x:si>
   <x:si>
@@ -271,15 +280,6 @@
   </x:si>
   <x:si>
     <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1230215</x:t>
@@ -1387,7 +1387,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45928.2791438657</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1419,7 +1419,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6819943634</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1451,7 +1451,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4551885069</x:v>
+        <x:v>45907.6819943634</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1483,7 +1483,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6727075231</x:v>
+        <x:v>45909.4551885069</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1515,7 +1515,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9762040162</x:v>
+        <x:v>45907.6727075231</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1543,9 +1543,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45914.9762040162</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1568,16 +1570,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1609,7 +1609,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9728108449</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1641,7 +1641,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45914.9728108449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1673,7 +1673,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4628696759</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1705,7 +1705,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4147864931</x:v>
+        <x:v>45927.4628696759</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1737,7 +1737,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.4150876968</x:v>
+        <x:v>45927.4147864931</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1769,7 +1769,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.4167136574</x:v>
+        <x:v>45921.4150876968</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1801,7 +1801,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.4392584143</x:v>
+        <x:v>45921.4167136574</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
